--- a/terms/uberonFovtToDO.xlsx
+++ b/terms/uberonFovtToDO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007050C4-FB7E-D440-82D8-99478D41D846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A407858F-BB41-E14F-BD9A-C0D674775D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2500" windowWidth="26440" windowHeight="14640" xr2:uid="{42C8B0AE-0532-E548-A323-645E99887166}"/>
+    <workbookView xWindow="460" yWindow="2500" windowWidth="26440" windowHeight="14640" xr2:uid="{42C8B0AE-0532-E548-A323-645E99887166}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
